--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +492,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -816,7 +817,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -852,7 +853,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -888,7 +889,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -924,7 +925,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -960,7 +961,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,7 +1005,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1060,7 +1061,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1096,7 +1097,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1346,7 +1347,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1498,7 +1499,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1554,7 +1555,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1590,7 +1591,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1626,7 +1627,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1662,7 +1663,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1698,7 +1699,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1734,7 +1735,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1770,7 +1771,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1804,7 +1805,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1840,7 +1841,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1876,7 +1877,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1912,7 +1913,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1992,7 +1993,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2048,7 +2049,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2084,7 +2085,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2120,7 +2121,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2156,7 +2157,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2192,7 +2193,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2228,7 +2229,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2264,7 +2265,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2298,7 +2299,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2334,7 +2335,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2370,7 +2371,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2406,7 +2407,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2442,7 +2443,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2486,7 +2487,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2542,7 +2543,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2578,7 +2579,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2614,7 +2615,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2650,7 +2651,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2686,7 +2687,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2722,7 +2723,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2758,7 +2759,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2792,7 +2793,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2864,7 +2865,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2900,7 +2901,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2936,7 +2937,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2980,7 +2981,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3036,7 +3037,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3072,7 +3073,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3108,7 +3109,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3144,7 +3145,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3180,7 +3181,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3216,7 +3217,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3252,7 +3253,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3288,7 +3289,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3324,7 +3325,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3360,7 +3361,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3396,7 +3397,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3440,7 +3441,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3496,7 +3497,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3532,7 +3533,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3568,7 +3569,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3604,7 +3605,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3640,7 +3641,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3676,7 +3677,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3712,7 +3713,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3782,7 +3783,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3818,7 +3819,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3854,7 +3855,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3890,7 +3891,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3934,7 +3935,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -3990,7 +3991,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4026,7 +4027,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4062,7 +4063,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4098,7 +4099,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4134,7 +4135,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4170,7 +4171,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4206,7 +4207,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4276,7 +4277,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4312,7 +4313,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4348,7 +4349,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4384,7 +4385,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4428,7 +4429,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4484,7 +4485,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4520,7 +4521,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4556,7 +4557,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4592,7 +4593,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4628,7 +4629,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4664,7 +4665,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4700,7 +4701,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4736,7 +4737,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4772,7 +4773,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4808,7 +4809,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4844,7 +4845,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4888,7 +4889,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4944,7 +4945,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4980,7 +4981,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5016,7 +5017,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5052,7 +5053,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5088,7 +5089,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5124,7 +5125,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5160,7 +5161,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5302,7 +5303,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5338,7 +5339,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5382,7 +5383,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5474,7 +5475,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5510,7 +5511,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5546,7 +5547,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5582,7 +5583,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5618,7 +5619,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5688,7 +5689,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5724,7 +5725,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5796,7 +5797,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5832,7 +5833,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5876,7 +5877,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -5932,7 +5933,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5968,7 +5969,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6004,7 +6005,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6040,7 +6041,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6076,7 +6077,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6112,7 +6113,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6148,7 +6149,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6254,7 +6255,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6290,7 +6291,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6326,7 +6327,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6370,7 +6371,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6426,7 +6427,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6462,7 +6463,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6498,7 +6499,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6534,7 +6535,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6570,7 +6571,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6606,7 +6607,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6642,7 +6643,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6676,7 +6677,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6712,7 +6713,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6748,7 +6749,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6784,7 +6785,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6820,7 +6821,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6864,7 +6865,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6920,7 +6921,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6956,7 +6957,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6992,7 +6993,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7028,7 +7029,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7064,7 +7065,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7100,7 +7101,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7136,7 +7137,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7170,7 +7171,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7206,7 +7207,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7242,7 +7243,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7278,7 +7279,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7314,7 +7315,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -7358,7 +7359,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7414,7 +7415,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7450,7 +7451,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7486,7 +7487,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7522,7 +7523,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7558,7 +7559,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7594,7 +7595,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7666,7 +7667,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7702,7 +7703,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7738,7 +7739,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7774,7 +7775,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7818,7 +7819,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C193" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +491,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -567,7 +566,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -603,7 +602,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,7 +638,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -675,7 +674,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -711,7 +710,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -747,7 +746,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -817,7 +816,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -853,7 +852,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -889,7 +888,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -925,7 +924,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -961,7 +960,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1005,7 +1004,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1061,7 +1060,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1097,7 +1096,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1133,7 +1132,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1169,7 +1168,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1205,7 +1204,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1241,7 +1240,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1277,7 +1276,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1311,7 +1310,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1347,7 +1346,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1383,7 +1382,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1419,7 +1418,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1455,7 +1454,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1499,7 +1498,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1555,7 +1554,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1591,7 +1590,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1627,7 +1626,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1663,7 +1662,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1699,7 +1698,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1735,7 +1734,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1771,7 +1770,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1805,7 +1804,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1841,7 +1840,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1877,7 +1876,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1913,7 +1912,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1949,7 +1948,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1993,7 +1992,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2049,7 +2048,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2085,7 +2084,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2121,7 +2120,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2157,7 +2156,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2193,7 +2192,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2229,7 +2228,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2265,7 +2264,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2299,7 +2298,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2335,7 +2334,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2371,7 +2370,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2407,7 +2406,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2443,7 +2442,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2487,7 +2486,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2543,7 +2542,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2579,7 +2578,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2615,7 +2614,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2651,7 +2650,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2687,7 +2686,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2723,7 +2722,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2759,7 +2758,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2793,7 +2792,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2829,7 +2828,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2865,7 +2864,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2901,7 +2900,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2937,7 +2936,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2981,7 +2980,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3037,7 +3036,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3073,7 +3072,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3109,7 +3108,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3145,7 +3144,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3181,7 +3180,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3217,7 +3216,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3253,7 +3252,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3289,7 +3288,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3325,7 +3324,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3361,7 +3360,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3397,7 +3396,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3441,7 +3440,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3497,7 +3496,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3533,7 +3532,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3569,7 +3568,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3605,7 +3604,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3641,7 +3640,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3677,7 +3676,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3713,7 +3712,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3747,7 +3746,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3783,7 +3782,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3819,7 +3818,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3855,7 +3854,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3891,7 +3890,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3935,7 +3934,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -3991,7 +3990,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4027,7 +4026,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4063,7 +4062,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4099,7 +4098,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4135,7 +4134,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4171,7 +4170,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4207,7 +4206,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4241,7 +4240,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4277,7 +4276,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4313,7 +4312,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4349,7 +4348,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4385,7 +4384,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4429,7 +4428,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4485,7 +4484,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4521,7 +4520,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4557,7 +4556,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4593,7 +4592,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4629,7 +4628,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4665,7 +4664,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4701,7 +4700,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4737,7 +4736,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4773,7 +4772,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4809,7 +4808,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4845,7 +4844,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4889,7 +4888,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4945,7 +4944,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4981,7 +4980,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5017,7 +5016,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5053,7 +5052,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5089,7 +5088,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5125,7 +5124,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5161,7 +5160,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5195,7 +5194,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5231,7 +5230,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5267,7 +5266,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5303,7 +5302,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5339,7 +5338,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5383,7 +5382,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5439,7 +5438,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5475,7 +5474,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5511,7 +5510,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5547,7 +5546,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5583,7 +5582,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5619,7 +5618,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5655,7 +5654,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5689,7 +5688,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5725,7 +5724,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5761,7 +5760,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5797,7 +5796,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5833,7 +5832,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5877,7 +5876,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -5933,7 +5932,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5969,7 +5968,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6005,7 +6004,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6041,7 +6040,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6077,7 +6076,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6113,7 +6112,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6149,7 +6148,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6183,7 +6182,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6219,7 +6218,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6255,7 +6254,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6291,7 +6290,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6327,7 +6326,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6371,7 +6370,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6427,7 +6426,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6463,7 +6462,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6499,7 +6498,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6535,7 +6534,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6571,7 +6570,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6607,7 +6606,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6643,7 +6642,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6677,7 +6676,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6713,7 +6712,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6749,7 +6748,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6785,7 +6784,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6821,7 +6820,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6865,7 +6864,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6921,7 +6920,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6957,7 +6956,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6993,7 +6992,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7029,7 +7028,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7065,7 +7064,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7101,7 +7100,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7137,7 +7136,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43410</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7171,7 +7170,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7207,7 +7206,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7243,7 +7242,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7279,7 +7278,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7315,7 +7314,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -7359,7 +7358,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7415,7 +7414,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7451,7 +7450,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7487,7 +7486,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43322</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7523,7 +7522,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7559,7 +7558,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43371</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7595,7 +7594,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7631,7 +7630,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7667,7 +7666,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43418</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7703,7 +7702,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7739,7 +7738,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7775,7 +7774,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43483</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7819,7 +7818,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="C193" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +492,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -816,7 +817,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -852,7 +853,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -888,7 +889,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -924,7 +925,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -960,7 +961,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,7 +1005,7 @@
           <t>FAR HYC W18-02-2Seeds175CvRelay</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1060,7 +1061,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1096,7 +1097,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1346,7 +1347,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1498,7 +1499,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1554,7 +1555,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1590,7 +1591,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1626,7 +1627,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1662,7 +1663,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1698,7 +1699,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1734,7 +1735,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1770,7 +1771,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1804,7 +1805,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1840,7 +1841,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1876,7 +1877,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1912,7 +1913,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1992,7 +1993,7 @@
           <t>FAR HYC W18-02-2Seeds175CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2048,7 +2049,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2084,7 +2085,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2120,7 +2121,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2156,7 +2157,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2192,7 +2193,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2228,7 +2229,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2264,7 +2265,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2298,7 +2299,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2334,7 +2335,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2370,7 +2371,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2406,7 +2407,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2442,7 +2443,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2486,7 +2487,7 @@
           <t>FAR HYC W18-02-2Seeds175CvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2542,7 +2543,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2578,7 +2579,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2614,7 +2615,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2650,7 +2651,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2686,7 +2687,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2722,7 +2723,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2758,7 +2759,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2792,7 +2793,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2864,7 +2865,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2900,7 +2901,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2936,7 +2937,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2980,7 +2981,7 @@
           <t>FAR HYC W18-02-2Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3036,7 +3037,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3072,7 +3073,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3108,7 +3109,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3144,7 +3145,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3180,7 +3181,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3216,7 +3217,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3252,7 +3253,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3288,7 +3289,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3324,7 +3325,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3360,7 +3361,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3396,7 +3397,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3440,7 +3441,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3496,7 +3497,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3532,7 +3533,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3568,7 +3569,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3604,7 +3605,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3640,7 +3641,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3676,7 +3677,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3712,7 +3713,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3782,7 +3783,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3818,7 +3819,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3854,7 +3855,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3890,7 +3891,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3934,7 +3935,7 @@
           <t>FAR HYC W18-02-2Seeds100CvRelay</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -3990,7 +3991,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4026,7 +4027,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4062,7 +4063,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4098,7 +4099,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4134,7 +4135,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4170,7 +4171,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4206,7 +4207,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4276,7 +4277,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4312,7 +4313,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4348,7 +4349,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4384,7 +4385,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4428,7 +4429,7 @@
           <t>FAR HYC W18-02-2Seeds100CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4484,7 +4485,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4520,7 +4521,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4556,7 +4557,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4592,7 +4593,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4628,7 +4629,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4664,7 +4665,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4700,7 +4701,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4736,7 +4737,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4772,7 +4773,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4808,7 +4809,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4844,7 +4845,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -4888,7 +4889,7 @@
           <t>FAR HYC W18-02-2Seeds100CvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -4944,7 +4945,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4980,7 +4981,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5016,7 +5017,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5052,7 +5053,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5088,7 +5089,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5124,7 +5125,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5160,7 +5161,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5302,7 +5303,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5338,7 +5339,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5382,7 +5383,7 @@
           <t>FAR HYC W18-02-2Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5474,7 +5475,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5510,7 +5511,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5546,7 +5547,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5582,7 +5583,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5618,7 +5619,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5688,7 +5689,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5724,7 +5725,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5796,7 +5797,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5832,7 +5833,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5876,7 +5877,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -5932,7 +5933,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5968,7 +5969,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6004,7 +6005,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6040,7 +6041,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6076,7 +6077,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6112,7 +6113,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6148,7 +6149,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6254,7 +6255,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6290,7 +6291,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6326,7 +6327,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6370,7 +6371,7 @@
           <t>FAR HYC W18-02-2Seeds250CvCalabro</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6426,7 +6427,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6462,7 +6463,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6498,7 +6499,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6534,7 +6535,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6570,7 +6571,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6606,7 +6607,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6642,7 +6643,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6676,7 +6677,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6712,7 +6713,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6748,7 +6749,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6784,7 +6785,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6820,7 +6821,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6864,7 +6865,7 @@
           <t>FAR HYC W18-02-2Seeds250CvRelay</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6920,7 +6921,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6956,7 +6957,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6992,7 +6993,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7028,7 +7029,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7064,7 +7065,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7100,7 +7101,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7136,7 +7137,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43410</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7170,7 +7171,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7206,7 +7207,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7242,7 +7243,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7278,7 +7279,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7314,7 +7315,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -7358,7 +7359,7 @@
           <t>FAR HYC W18-02-2Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7414,7 +7415,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7450,7 +7451,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7486,7 +7487,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43322</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7522,7 +7523,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7558,7 +7559,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43371</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7594,7 +7595,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43391</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7666,7 +7667,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43418</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7702,7 +7703,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7738,7 +7739,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7774,7 +7775,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43483</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7818,7 +7819,7 @@
           <t>FAR HYC W18-02-2Seeds250CvAccroc</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43497</v>
       </c>
       <c r="C193" t="inlineStr">
